--- a/IT2R_projet.xlsx
+++ b/IT2R_projet.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
   <si>
     <t>Analyse de l'environnement</t>
   </si>
@@ -219,6 +219,39 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>SPRINT 2 :</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Taches à réaliser</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Reprise par Irfan et Hugo</t>
+  </si>
+  <si>
+    <t>Mise en place actualisation 95% -&gt; Cloud</t>
+  </si>
+  <si>
+    <t>Tester fonctionnement -&gt; IHM si fonctionnment CAN Ok</t>
+  </si>
+  <si>
+    <t>Traiter les trames/Environnement/RTOS 50%</t>
+  </si>
+  <si>
+    <t>Point Mort/Données inxploitable / Passage sous RTOS - Voir prochaine séance</t>
+  </si>
+  <si>
+    <t>DF_PLAyer en RTOS 90% / Séquencer data gps 60%</t>
+  </si>
+  <si>
+    <t>Finaliser mise en RTOS  95% -&gt;RFID</t>
   </si>
 </sst>
 </file>
@@ -276,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -319,11 +352,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -335,11 +381,490 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -350,6 +875,57 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B33:I40" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="27">
+  <autoFilter ref="B33:I40"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Ordre" dataDxfId="26"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="25"/>
+    <tableColumn id="3" name="Carte" dataDxfId="24"/>
+    <tableColumn id="4" name="Module" dataDxfId="23"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="22"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="21"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="20"/>
+    <tableColumn id="8" name="Taches à réaliser"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B42:I45" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="18">
+  <autoFilter ref="B42:I45"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Ordre" dataDxfId="17"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="16"/>
+    <tableColumn id="3" name="Carte" dataDxfId="15"/>
+    <tableColumn id="4" name="Module" dataDxfId="14"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="13"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="12"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="11"/>
+    <tableColumn id="8" name="Taches à réaliser"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B4:I15" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="10">
+  <autoFilter ref="B4:I15"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Ordre" dataDxfId="9"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="8"/>
+    <tableColumn id="3" name="Carte" dataDxfId="7"/>
+    <tableColumn id="4" name="Module" dataDxfId="6"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="5"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="4"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="3"/>
+    <tableColumn id="8" name="Colonne2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,22 +1225,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="36.5703125" customWidth="1"/>
-    <col min="9" max="9" width="70.140625" customWidth="1"/>
+    <col min="9" max="9" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -674,10 +1250,12 @@
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
@@ -693,9 +1271,12 @@
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -721,7 +1302,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -747,7 +1328,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -773,7 +1354,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -796,7 +1377,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -819,7 +1400,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -843,7 +1424,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -869,7 +1450,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -895,7 +1476,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="B13" s="11">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -917,7 +1498,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="B14" s="11">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -941,7 +1522,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="B15" s="11">
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -969,64 +1550,374 @@
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="1">
+        <v>6</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1">
+        <v>15</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="1">
+        <v>18</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/IT2R_projet.xlsx
+++ b/IT2R_projet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\S4\S4 Projet IT2R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.GEII2.000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -388,30 +388,6 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -573,6 +549,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -862,6 +850,18 @@
         <left style="thin">
           <color auto="1"/>
         </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -878,16 +878,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B33:I40" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B33:I40" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="B33:I40"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Ordre" dataDxfId="26"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="25"/>
-    <tableColumn id="3" name="Carte" dataDxfId="24"/>
-    <tableColumn id="4" name="Module" dataDxfId="23"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="22"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="21"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="20"/>
+    <tableColumn id="1" name="Ordre" dataDxfId="25"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="24"/>
+    <tableColumn id="3" name="Carte" dataDxfId="23"/>
+    <tableColumn id="4" name="Module" dataDxfId="22"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="21"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="20"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="19"/>
     <tableColumn id="8" name="Taches à réaliser"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -895,16 +895,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B42:I45" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B42:I45" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="B42:I45"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Ordre" dataDxfId="17"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="16"/>
-    <tableColumn id="3" name="Carte" dataDxfId="15"/>
-    <tableColumn id="4" name="Module" dataDxfId="14"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="13"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="12"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="11"/>
+    <tableColumn id="1" name="Ordre" dataDxfId="16"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="15"/>
+    <tableColumn id="3" name="Carte" dataDxfId="14"/>
+    <tableColumn id="4" name="Module" dataDxfId="13"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="12"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="11"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="10"/>
     <tableColumn id="8" name="Taches à réaliser"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -912,17 +912,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B4:I15" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B4:I15" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B4:I15"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Ordre" dataDxfId="9"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="8"/>
-    <tableColumn id="3" name="Carte" dataDxfId="7"/>
-    <tableColumn id="4" name="Module" dataDxfId="6"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="5"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="4"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="3"/>
-    <tableColumn id="8" name="Colonne2" dataDxfId="2"/>
+    <tableColumn id="1" name="Ordre" dataDxfId="7"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="6"/>
+    <tableColumn id="3" name="Carte" dataDxfId="5"/>
+    <tableColumn id="4" name="Module" dataDxfId="4"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="3"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="2"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="1"/>
+    <tableColumn id="8" name="Colonne2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1667,7 @@
       <c r="B35" s="11">
         <v>1</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -1693,7 +1693,7 @@
       <c r="B36" s="11">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -1849,7 +1849,7 @@
       <c r="B43" s="11">
         <v>3</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="9"/>

--- a/IT2R_projet.xlsx
+++ b/IT2R_projet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.GEII2.000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\S4\S4 Projet IT2R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="66">
   <si>
     <t>Analyse de l'environnement</t>
   </si>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">Bus - Analyse trame - id </t>
   </si>
   <si>
-    <t>Ordre</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eric &amp; Théo                 </t>
   </si>
   <si>
@@ -170,42 +167,6 @@
     <t>Marco &amp; Armand</t>
   </si>
   <si>
-    <t>Mise en place du BUS CAN:</t>
-  </si>
-  <si>
-    <t>Fonctionnement sur RTOS:</t>
-  </si>
-  <si>
-    <t>Mise en place des taches d'envoies et de reception des trames CAN</t>
-  </si>
-  <si>
-    <t>Trie des données recus sur le BUS CAN en fonction des IDs des postes sur le réseau</t>
-  </si>
-  <si>
-    <t>réveille des taches de traitement sur mailbox</t>
-  </si>
-  <si>
-    <t>Adresses :</t>
-  </si>
-  <si>
-    <t>Carte centrale : 0x001</t>
-  </si>
-  <si>
-    <t>Phares : 0x003</t>
-  </si>
-  <si>
-    <t>GPS : 0x004</t>
-  </si>
-  <si>
-    <t>Ultra-son arrière : 0x005</t>
-  </si>
-  <si>
-    <t>Ultra-son avant : 0x002</t>
-  </si>
-  <si>
-    <t>SPRINT 1</t>
-  </si>
-  <si>
     <t>Carte</t>
   </si>
   <si>
@@ -252,6 +213,24 @@
   </si>
   <si>
     <t>Finaliser mise en RTOS  95% -&gt;RFID</t>
+  </si>
+  <si>
+    <t>PROJET S4 IT2R</t>
+  </si>
+  <si>
+    <t>SPRINT 3 :</t>
+  </si>
+  <si>
+    <t>Poker</t>
+  </si>
+  <si>
+    <t>SPRINT 1 :</t>
+  </si>
+  <si>
+    <t>RECAP :</t>
+  </si>
+  <si>
+    <t>Cypien &amp; Sylvain</t>
   </si>
 </sst>
 </file>
@@ -268,7 +247,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,7 +255,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -309,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -365,11 +344,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -378,15 +405,512 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="56">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -878,16 +1402,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B33:I40" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="B33:I40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B36:I43" totalsRowShown="0" headerRowDxfId="55" tableBorderDxfId="54">
+  <autoFilter ref="B36:I43"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Ordre" dataDxfId="25"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="24"/>
-    <tableColumn id="3" name="Carte" dataDxfId="23"/>
-    <tableColumn id="4" name="Module" dataDxfId="22"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="21"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="20"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="19"/>
+    <tableColumn id="1" name="Poker" dataDxfId="53"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="52"/>
+    <tableColumn id="3" name="Carte" dataDxfId="51"/>
+    <tableColumn id="4" name="Module" dataDxfId="50"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="49"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="48"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="47"/>
     <tableColumn id="8" name="Taches à réaliser"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -895,10 +1419,78 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B42:I45" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="B42:I45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B45:I48" totalsRowShown="0" headerRowDxfId="46" tableBorderDxfId="45">
+  <autoFilter ref="B45:I48"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Ordre" dataDxfId="16"/>
+    <tableColumn id="1" name="Poker" dataDxfId="44"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="43"/>
+    <tableColumn id="3" name="Carte" dataDxfId="42"/>
+    <tableColumn id="4" name="Module" dataDxfId="41"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="40"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="39"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="38"/>
+    <tableColumn id="8" name="Taches à réaliser"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B21:I32" totalsRowShown="0" headerRowDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="B21:I32"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Poker" dataDxfId="35"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="34"/>
+    <tableColumn id="3" name="Carte" dataDxfId="33"/>
+    <tableColumn id="4" name="Module" dataDxfId="32"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="31"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="30"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="29"/>
+    <tableColumn id="8" name="Colonne2" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau36" displayName="Tableau36" ref="B6:I17" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B6:I17"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Poker" dataDxfId="25"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="24"/>
+    <tableColumn id="3" name="Carte" dataDxfId="23"/>
+    <tableColumn id="4" name="Module" dataDxfId="22"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="21"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="20"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="19"/>
+    <tableColumn id="8" name="Colonne2" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau17" displayName="Tableau17" ref="B52:I58" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="7">
+  <autoFilter ref="B52:I58"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Poker" dataDxfId="6"/>
+    <tableColumn id="2" name="Colonne1" dataDxfId="5"/>
+    <tableColumn id="3" name="Carte" dataDxfId="4"/>
+    <tableColumn id="4" name="Module" dataDxfId="3"/>
+    <tableColumn id="5" name="Périphérique" dataDxfId="2"/>
+    <tableColumn id="6" name="Difficulté" dataDxfId="1"/>
+    <tableColumn id="7" name="étudiant" dataDxfId="0"/>
+    <tableColumn id="8" name="Taches à réaliser"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau28" displayName="Tableau28" ref="B60:I61" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B60:I61"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Poker" dataDxfId="16"/>
     <tableColumn id="2" name="Colonne1" dataDxfId="15"/>
     <tableColumn id="3" name="Carte" dataDxfId="14"/>
     <tableColumn id="4" name="Module" dataDxfId="13"/>
@@ -906,23 +1498,6 @@
     <tableColumn id="6" name="Difficulté" dataDxfId="11"/>
     <tableColumn id="7" name="étudiant" dataDxfId="10"/>
     <tableColumn id="8" name="Taches à réaliser"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B4:I15" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B4:I15"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Ordre" dataDxfId="7"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="6"/>
-    <tableColumn id="3" name="Carte" dataDxfId="5"/>
-    <tableColumn id="4" name="Module" dataDxfId="4"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="3"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="2"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="1"/>
-    <tableColumn id="8" name="Colonne2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1225,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I45"/>
+  <dimension ref="B2:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,681 +1818,1184 @@
     <col min="9" max="9" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G25" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="1">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1">
         <v>4</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="1">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="11">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="1">
-        <v>11</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="1">
-        <v>6</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="1">
-        <v>4</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="1">
-        <v>6</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="1">
-        <v>7</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
-        <v>2</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="1">
-        <v>8</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="1">
+        <v>7</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
         <v>2</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="D43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="1">
+        <v>15</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="1">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="1">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="1">
-        <v>15</v>
-      </c>
-      <c r="H40" s="1" t="s">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="1">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
+        <v>2</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="10">
+        <v>3</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="15">
+        <v>3</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="18">
+        <v>10</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="11">
+      <c r="I60" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
         <v>3</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="1">
-        <v>14</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="1">
         <v>18</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="1">
-        <v>10</v>
-      </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="1">
-        <v>18</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/IT2R_projet.xlsx
+++ b/IT2R_projet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\S4\S4 Projet IT2R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S4 Projet IT2R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC88AF3-E44A-4E33-B43C-8B003A94EBAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="70">
   <si>
     <t>Analyse de l'environnement</t>
   </si>
@@ -215,9 +207,6 @@
     <t>Finaliser mise en RTOS  95% -&gt;RFID</t>
   </si>
   <si>
-    <t>PROJET S4 IT2R</t>
-  </si>
-  <si>
     <t>SPRINT 3 :</t>
   </si>
   <si>
@@ -230,13 +219,28 @@
     <t>RECAP :</t>
   </si>
   <si>
-    <t>Cypien &amp; Sylvain</t>
+    <t>PROJET S4 IT2R : RECAP</t>
+  </si>
+  <si>
+    <t>Disponibilite</t>
+  </si>
+  <si>
+    <t>3 seances</t>
+  </si>
+  <si>
+    <t>2 seances</t>
+  </si>
+  <si>
+    <t>1 seances</t>
+  </si>
+  <si>
+    <t>Hugo &amp; Irfan &amp; Marco &amp; Armand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,6 +526,155 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -575,155 +728,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1402,102 +1406,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B36:I43" totalsRowShown="0" headerRowDxfId="55" tableBorderDxfId="54">
-  <autoFilter ref="B36:I43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B36:I43" totalsRowShown="0" headerRowDxfId="55" tableBorderDxfId="54">
+  <autoFilter ref="B36:I43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Poker" dataDxfId="53"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="52"/>
-    <tableColumn id="3" name="Carte" dataDxfId="51"/>
-    <tableColumn id="4" name="Module" dataDxfId="50"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="49"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="48"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="47"/>
-    <tableColumn id="8" name="Taches à réaliser"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Poker" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Colonne1" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Carte" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Module" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Périphérique" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Difficulté" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="étudiant" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Taches à réaliser"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B45:I48" totalsRowShown="0" headerRowDxfId="46" tableBorderDxfId="45">
-  <autoFilter ref="B45:I48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="B45:I48" totalsRowShown="0" headerRowDxfId="46" tableBorderDxfId="45">
+  <autoFilter ref="B45:I48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Poker" dataDxfId="44"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="43"/>
-    <tableColumn id="3" name="Carte" dataDxfId="42"/>
-    <tableColumn id="4" name="Module" dataDxfId="41"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="40"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="39"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="38"/>
-    <tableColumn id="8" name="Taches à réaliser"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Poker" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Colonne1" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Carte" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Module" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Périphérique" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Difficulté" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="étudiant" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Taches à réaliser"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B21:I32" totalsRowShown="0" headerRowDxfId="37" tableBorderDxfId="36">
-  <autoFilter ref="B21:I32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B21:I32" totalsRowShown="0" headerRowDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="B21:I32" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Poker" dataDxfId="35"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="34"/>
-    <tableColumn id="3" name="Carte" dataDxfId="33"/>
-    <tableColumn id="4" name="Module" dataDxfId="32"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="31"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="30"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="29"/>
-    <tableColumn id="8" name="Colonne2" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Poker" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Colonne1" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Carte" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Module" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Périphérique" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Difficulté" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="étudiant" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Colonne2" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau36" displayName="Tableau36" ref="B6:I17" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="B6:I17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau36" displayName="Tableau36" ref="B6:I17" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B6:I17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Poker" dataDxfId="25"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="24"/>
-    <tableColumn id="3" name="Carte" dataDxfId="23"/>
-    <tableColumn id="4" name="Module" dataDxfId="22"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="21"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="20"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="19"/>
-    <tableColumn id="8" name="Colonne2" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Poker" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Colonne1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Carte" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Module" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Périphérique" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Difficulté" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="étudiant" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Colonne2" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau17" displayName="Tableau17" ref="B52:I58" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="7">
-  <autoFilter ref="B52:I58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau17" displayName="Tableau17" ref="B52:I58" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="B52:I58" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Poker" dataDxfId="6"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="5"/>
-    <tableColumn id="3" name="Carte" dataDxfId="4"/>
-    <tableColumn id="4" name="Module" dataDxfId="3"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="2"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="1"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="0"/>
-    <tableColumn id="8" name="Taches à réaliser"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Poker" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Colonne1" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Carte" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Module" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Périphérique" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Difficulté" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="étudiant" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Disponibilite"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau28" displayName="Tableau28" ref="B60:I61" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B60:I61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tableau28" displayName="Tableau28" ref="B60:I61" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="B60:I61" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Poker" dataDxfId="16"/>
-    <tableColumn id="2" name="Colonne1" dataDxfId="15"/>
-    <tableColumn id="3" name="Carte" dataDxfId="14"/>
-    <tableColumn id="4" name="Module" dataDxfId="13"/>
-    <tableColumn id="5" name="Périphérique" dataDxfId="12"/>
-    <tableColumn id="6" name="Difficulté" dataDxfId="11"/>
-    <tableColumn id="7" name="étudiant" dataDxfId="10"/>
-    <tableColumn id="8" name="Taches à réaliser"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Poker" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Colonne1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Carte" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Module" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Périphérique" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Difficulté" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="étudiant" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Taches à réaliser"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1799,44 +1803,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.5546875" customWidth="1"/>
     <col min="9" max="9" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -1860,7 +1864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>1</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>1</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>1</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>1</v>
       </c>
@@ -1961,11 +1965,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1984,7 +1988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>3</v>
       </c>
@@ -2008,11 +2012,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2034,11 +2038,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2060,7 +2064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>3</v>
       </c>
@@ -2082,7 +2086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>3</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>2</v>
       </c>
@@ -2134,7 +2138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2144,9 +2148,9 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2156,12 +2160,12 @@
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>50</v>
@@ -2185,7 +2189,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>1</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>1</v>
       </c>
@@ -2237,7 +2241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <v>1</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>1</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>1</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>3</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>2</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>3</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10">
         <v>3</v>
       </c>
@@ -2431,7 +2435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10">
         <v>2</v>
       </c>
@@ -2457,17 +2461,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>50</v>
@@ -2491,7 +2495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <v>1</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10">
         <v>1</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>1</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10">
         <v>1</v>
       </c>
@@ -2589,13 +2593,13 @@
         <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
         <v>1</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10">
         <v>2</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>2</v>
       </c>
@@ -2673,9 +2677,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>50</v>
@@ -2699,7 +2703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10">
         <v>3</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10">
         <v>3</v>
       </c>
@@ -2741,7 +2745,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10">
         <v>3</v>
       </c>
@@ -2765,14 +2769,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B50" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>50</v>
@@ -2793,10 +2797,10 @@
         <v>21</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10">
         <v>1</v>
       </c>
@@ -2818,9 +2822,11 @@
       <c r="H53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10">
         <v>1</v>
       </c>
@@ -2840,11 +2846,13 @@
         <v>6</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10">
         <v>1</v>
       </c>
@@ -2866,9 +2874,11 @@
       <c r="H55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10">
         <v>2</v>
       </c>
@@ -2890,9 +2900,11 @@
       <c r="H56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10">
         <v>3</v>
       </c>
@@ -2912,9 +2924,11 @@
       <c r="H57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="15">
         <v>3</v>
       </c>
@@ -2934,13 +2948,15 @@
         <v>10</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>50</v>
@@ -2964,7 +2980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10">
         <v>3</v>
       </c>
@@ -2983,7 +2999,9 @@
       <c r="G61" s="1">
         <v>18</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I61" s="2"/>
     </row>
   </sheetData>
